--- a/medicine/Enfance/Chasse_au_tigre_en_Corrèze/Chasse_au_tigre_en_Corrèze.xlsx
+++ b/medicine/Enfance/Chasse_au_tigre_en_Corrèze/Chasse_au_tigre_en_Corrèze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chasse_au_tigre_en_Corr%C3%A8ze</t>
+          <t>Chasse_au_tigre_en_Corrèze</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chasse au tigre en Corrèze est le cinquième roman de la série Les Évadés du temps écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1983 chez Hachette dans la collection Bibliothèque verte. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chasse_au_tigre_en_Corr%C3%A8ze</t>
+          <t>Chasse_au_tigre_en_Corrèze</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tigre hante le jardin du docteur Sarlat en Corrèze ! Non loin de l'endroit où les Evadés du Temps ont établi leur camp pour les vacances... Alertés par le médecin et son fils, nos amis envisagent toutes les hypothèses... Ne s'agit-il pas d'un tigre-garou ? Et cet animal de légende, surgi du fond des temps, ne serait-il pas... l'un d'eux ? Noïm ou Kouroun ? Les soupçons s'égarent, jusqu'à cette nuit où, dans la clarté lunaire, apparaît la vérité, étonnante !
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chasse_au_tigre_en_Corr%C3%A8ze</t>
+          <t>Chasse_au_tigre_en_Corrèze</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1983 : Hachette, coll. : Bibliothèque verte, cartonné. Illustrations de Angel Arias Crespo. 186 p.  (ISBN 2-01-009314-3),  (EAN 9782010093142)
 1989 : Hachette, coll. : Bibliothèque verte, souple, no 110. Illustrations de Richard Martens. 191 p.  (ISBN 2-01-015094-5),  (EAN 9782010150944)
